--- a/public/template/Template_Import_Student.xlsx
+++ b/public/template/Template_Import_Student.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HCMUS-EDU\src\Classrooms-management-website\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_data\Classrooms-management-website\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83262F42-6140-4556-9FAB-A2FFA03012FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7362659E-6E60-4379-8666-65770FA9E9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4188" yWindow="1404" windowWidth="16584" windowHeight="9420" xr2:uid="{EDF8A4D5-D32A-4341-948B-85CEF4E7EE9A}"/>
+    <workbookView xWindow="5580" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{EDF8A4D5-D32A-4341-948B-85CEF4E7EE9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
